--- a/simulation_data/two_step_algorithm/2s_error_level_2_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_2_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.4708125294401</v>
+        <v>93.29874413729235</v>
       </c>
       <c r="D2" t="n">
-        <v>2.492764751492539</v>
+        <v>2.435966437894464</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.74281242652229</v>
+        <v>92.60383416423161</v>
       </c>
       <c r="D3" t="n">
-        <v>2.851272210618161</v>
+        <v>2.475342683582237</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.50133128576107</v>
+        <v>91.30200788131476</v>
       </c>
       <c r="D4" t="n">
-        <v>2.740330437783454</v>
+        <v>2.524537374036422</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.53814829747131</v>
+        <v>89.78498625784877</v>
       </c>
       <c r="D5" t="n">
-        <v>2.533888746924082</v>
+        <v>2.079561076414458</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.70091029122521</v>
+        <v>88.8137182784963</v>
       </c>
       <c r="D6" t="n">
-        <v>2.625762522779488</v>
+        <v>2.376838503724147</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.99040681738967</v>
+        <v>88.18007126734085</v>
       </c>
       <c r="D7" t="n">
-        <v>2.533596763443558</v>
+        <v>2.408760511064313</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.06444408655651</v>
+        <v>86.77934774530064</v>
       </c>
       <c r="D8" t="n">
-        <v>2.459487116510491</v>
+        <v>2.591748991549018</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.03783580088104</v>
+        <v>85.70906166645563</v>
       </c>
       <c r="D9" t="n">
-        <v>2.334645962104126</v>
+        <v>2.619679036886712</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.52986989345281</v>
+        <v>84.63878819872448</v>
       </c>
       <c r="D10" t="n">
-        <v>2.747074173289263</v>
+        <v>2.545536384236169</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.39223053918741</v>
+        <v>83.31437818949557</v>
       </c>
       <c r="D11" t="n">
-        <v>2.667519362632164</v>
+        <v>2.721820369238586</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.33977599411888</v>
+        <v>82.55815997123862</v>
       </c>
       <c r="D12" t="n">
-        <v>2.694961998415663</v>
+        <v>2.519980413322179</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.41077999603078</v>
+        <v>81.09784910592582</v>
       </c>
       <c r="D13" t="n">
-        <v>2.540956501788103</v>
+        <v>2.487933132791936</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.43808425415423</v>
+        <v>80.49670184403682</v>
       </c>
       <c r="D14" t="n">
-        <v>2.635243104885464</v>
+        <v>2.399191725594227</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.11057840541193</v>
+        <v>79.55300748254933</v>
       </c>
       <c r="D15" t="n">
-        <v>2.372219062764661</v>
+        <v>2.519765050444386</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.63555577979554</v>
+        <v>78.10077775907182</v>
       </c>
       <c r="D16" t="n">
-        <v>2.631565481981233</v>
+        <v>2.789706669660186</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.48980225014277</v>
+        <v>77.18376162893036</v>
       </c>
       <c r="D17" t="n">
-        <v>2.8316069851924</v>
+        <v>2.636445255463938</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.45261673530206</v>
+        <v>75.86539113045932</v>
       </c>
       <c r="D18" t="n">
-        <v>2.478201326465314</v>
+        <v>2.355730505968229</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.50510210761176</v>
+        <v>75.04566570930147</v>
       </c>
       <c r="D19" t="n">
-        <v>2.771684500216992</v>
+        <v>2.688260085650693</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.53946111399802</v>
+        <v>74.06093273210693</v>
       </c>
       <c r="D20" t="n">
-        <v>2.669144007369257</v>
+        <v>2.399338410811264</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.77746692920411</v>
+        <v>73.21955994304189</v>
       </c>
       <c r="D21" t="n">
-        <v>2.8953068126798</v>
+        <v>2.559882136503965</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.75593683816253</v>
+        <v>72.04018789151719</v>
       </c>
       <c r="D22" t="n">
-        <v>2.415288041222423</v>
+        <v>2.421391942660092</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.21834422704643</v>
+        <v>70.66638684323628</v>
       </c>
       <c r="D23" t="n">
-        <v>2.671734613946776</v>
+        <v>2.504397369967929</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.31475991557711</v>
+        <v>69.56366310168913</v>
       </c>
       <c r="D24" t="n">
-        <v>2.403556459538568</v>
+        <v>2.265855836003159</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.40166457947407</v>
+        <v>68.69376872876282</v>
       </c>
       <c r="D25" t="n">
-        <v>2.654625707724104</v>
+        <v>2.692760749215254</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.50286871094282</v>
+        <v>67.41383650410491</v>
       </c>
       <c r="D26" t="n">
-        <v>2.057441175513431</v>
+        <v>2.313183089042993</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.05243262237772</v>
+        <v>66.36017209034999</v>
       </c>
       <c r="D27" t="n">
-        <v>2.328716344289912</v>
+        <v>2.15843632020008</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.7736079633633</v>
+        <v>65.46363633167063</v>
       </c>
       <c r="D28" t="n">
-        <v>2.438529432517816</v>
+        <v>2.179101189104083</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.90240145127855</v>
+        <v>63.59521321716588</v>
       </c>
       <c r="D29" t="n">
-        <v>2.63375849890003</v>
+        <v>2.475532758571547</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.0303446433908</v>
+        <v>62.94791786588124</v>
       </c>
       <c r="D30" t="n">
-        <v>2.552781996619044</v>
+        <v>2.248572464535946</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.16087995156086</v>
+        <v>61.63383653954563</v>
       </c>
       <c r="D31" t="n">
-        <v>2.426357108387932</v>
+        <v>2.341720087061895</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.65298670444346</v>
+        <v>61.16628018241576</v>
       </c>
       <c r="D32" t="n">
-        <v>2.623753269611525</v>
+        <v>2.440720934524353</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.34170081184477</v>
+        <v>60.38340564751574</v>
       </c>
       <c r="D33" t="n">
-        <v>2.458538617694849</v>
+        <v>2.551352045453752</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.05785077636262</v>
+        <v>59.22920402313669</v>
       </c>
       <c r="D34" t="n">
-        <v>2.390081140945867</v>
+        <v>2.669288185200116</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.47547383911459</v>
+        <v>58.11137169297727</v>
       </c>
       <c r="D35" t="n">
-        <v>2.472607672927891</v>
+        <v>2.370728316207331</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.03477019525081</v>
+        <v>56.40222304076516</v>
       </c>
       <c r="D36" t="n">
-        <v>2.200262150440966</v>
+        <v>2.536623377212758</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.4355960530145</v>
+        <v>56.07350973436271</v>
       </c>
       <c r="D37" t="n">
-        <v>2.506903388860294</v>
+        <v>2.21468264288784</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.71379552818768</v>
+        <v>54.79987226366392</v>
       </c>
       <c r="D38" t="n">
-        <v>2.484136127696304</v>
+        <v>2.245818656111207</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.23529343136354</v>
+        <v>53.53021059782967</v>
       </c>
       <c r="D39" t="n">
-        <v>2.306681698835463</v>
+        <v>2.608888735031727</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.88065658763197</v>
+        <v>52.66589392303165</v>
       </c>
       <c r="D40" t="n">
-        <v>2.495389408140724</v>
+        <v>2.346172456098496</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.57353724616103</v>
+        <v>51.33075186990597</v>
       </c>
       <c r="D41" t="n">
-        <v>2.590160334333542</v>
+        <v>2.220280672128707</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.53781298956739</v>
+        <v>50.91101753588276</v>
       </c>
       <c r="D42" t="n">
-        <v>2.41733662734489</v>
+        <v>2.371276437519331</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.34249223702592</v>
+        <v>49.4475297120018</v>
       </c>
       <c r="D43" t="n">
-        <v>2.307805683791166</v>
+        <v>2.478546086877014</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.27704868347542</v>
+        <v>48.7096587297922</v>
       </c>
       <c r="D44" t="n">
-        <v>2.333890108946345</v>
+        <v>2.693297580295064</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.57001456280026</v>
+        <v>47.19511884761754</v>
       </c>
       <c r="D45" t="n">
-        <v>2.700724777329808</v>
+        <v>2.458815169317418</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.28757705803849</v>
+        <v>46.54021922096622</v>
       </c>
       <c r="D46" t="n">
-        <v>2.284478686437336</v>
+        <v>2.300867405799822</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.3257830978426</v>
+        <v>45.39340673851252</v>
       </c>
       <c r="D47" t="n">
-        <v>2.385064813132225</v>
+        <v>2.637216341868964</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.18569809800877</v>
+        <v>44.5272982491941</v>
       </c>
       <c r="D48" t="n">
-        <v>2.319260616029149</v>
+        <v>2.393759998251332</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.3128327796266</v>
+        <v>43.23763039837078</v>
       </c>
       <c r="D49" t="n">
-        <v>2.621137231487275</v>
+        <v>2.447192926913063</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.20576634577067</v>
+        <v>42.48820667582518</v>
       </c>
       <c r="D50" t="n">
-        <v>2.390631791575058</v>
+        <v>2.325470979865038</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.39071215445116</v>
+        <v>41.19127802521989</v>
       </c>
       <c r="D51" t="n">
-        <v>2.374364022271326</v>
+        <v>2.041141093381784</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.33272777222475</v>
+        <v>40.0318605969763</v>
       </c>
       <c r="D52" t="n">
-        <v>2.678059423995956</v>
+        <v>2.490564518210883</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.24330557083442</v>
+        <v>38.89780698844846</v>
       </c>
       <c r="D53" t="n">
-        <v>2.610169863456937</v>
+        <v>2.660459415269194</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.22106667680472</v>
+        <v>38.0755418708729</v>
       </c>
       <c r="D54" t="n">
-        <v>2.2762885779617</v>
+        <v>2.110909731008987</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.62582225530259</v>
+        <v>37.32113846042966</v>
       </c>
       <c r="D55" t="n">
-        <v>2.336679171534003</v>
+        <v>2.457033717761453</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.18742110898577</v>
+        <v>35.86599917374842</v>
       </c>
       <c r="D56" t="n">
-        <v>2.393389671267252</v>
+        <v>2.404762838973027</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.41069375933122</v>
+        <v>35.27688362293428</v>
       </c>
       <c r="D57" t="n">
-        <v>2.179151360003349</v>
+        <v>2.27921853517813</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.28873451432698</v>
+        <v>34.04010261155962</v>
       </c>
       <c r="D58" t="n">
-        <v>2.342231153146718</v>
+        <v>2.437819874926451</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.80467272214151</v>
+        <v>32.88690877583491</v>
       </c>
       <c r="D59" t="n">
-        <v>2.25276645580171</v>
+        <v>2.368638722343917</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.00180586928725</v>
+        <v>32.3804160091417</v>
       </c>
       <c r="D60" t="n">
-        <v>2.364546613991861</v>
+        <v>2.595923848188166</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.54556679232554</v>
+        <v>31.37161249797986</v>
       </c>
       <c r="D61" t="n">
-        <v>2.480999370096421</v>
+        <v>2.505626477876758</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.92906803630505</v>
+        <v>30.02199875857885</v>
       </c>
       <c r="D62" t="n">
-        <v>2.852021944392961</v>
+        <v>2.587601762862059</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.93947169586247</v>
+        <v>29.16094527501504</v>
       </c>
       <c r="D63" t="n">
-        <v>2.492055613972814</v>
+        <v>2.345515627202914</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.8960832407691</v>
+        <v>27.97977535311228</v>
       </c>
       <c r="D64" t="n">
-        <v>2.314499543686978</v>
+        <v>2.244614030216272</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.22793992975759</v>
+        <v>27.12569341514625</v>
       </c>
       <c r="D65" t="n">
-        <v>2.47788875581017</v>
+        <v>2.349227104869087</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.27117645442273</v>
+        <v>26.17203948088893</v>
       </c>
       <c r="D66" t="n">
-        <v>2.450106951993098</v>
+        <v>2.618207271694679</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.17503887676463</v>
+        <v>25.27441245828498</v>
       </c>
       <c r="D67" t="n">
-        <v>2.249740756439139</v>
+        <v>2.02819862425014</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.38304392566279</v>
+        <v>23.66327313093377</v>
       </c>
       <c r="D68" t="n">
-        <v>2.401206808217038</v>
+        <v>2.307125318708576</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.26808286493113</v>
+        <v>22.51451709616191</v>
       </c>
       <c r="D69" t="n">
-        <v>2.5560698477314</v>
+        <v>2.369053092018794</v>
       </c>
     </row>
   </sheetData>
